--- a/Test_Suite/web_delete.xlsx
+++ b/Test_Suite/web_delete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0D474-FBE5-4517-858B-38E83FA15431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAAA391-2EC7-4857-8930-9C4A82DADBEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -61,49 +61,6 @@
         <family val="3"/>
       </rPr>
       <t>'standardWebsite'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Shell_Websites().utils(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'standardWebsite'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>'exist'</t>
     </r>
     <r>
       <rPr>
@@ -557,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,11 +552,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,23 +564,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,54 +588,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
